--- a/mapping/mml4_vital_sign.xlsx
+++ b/mapping/mml4_vital_sign.xlsx
@@ -15,8 +15,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>skoba</author>
+  </authors>
+  <commentList>
+    <comment ref="H21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>itemNameの値で分岐します</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">OccurrenceがMML側が0回以上の繰り返しですが、Archetype側がsingleなので、繰り返しは連結して、格納してください
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
   <si>
     <t>Elements</t>
   </si>
@@ -187,7 +227,180 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1]/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]/value</t>
+    <t>Name of Organisation</t>
+  </si>
+  <si>
+    <t>Name of Organisation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Department']/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/mappings/match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*値は"="で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Department']/items[at0011]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Department']/items[at0011]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Department']/items[at0011]/mappings/match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Ward']/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Ward']/items[at0011]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Ward']/items[at0011]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Ward']/items[at0011]/mappings/match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[openEHR-EHR-CLUSTER.person_name.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0011]</t>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0011]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0011]/mappings/match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="Pulse rate"の場合</t>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Temprature</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/state[at0029]/items[at0041]</t>
+  </si>
+  <si>
+    <t>Description of thermal stress</t>
+  </si>
+  <si>
+    <t>EventPointTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/protocol[at0020]/items[at0021]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Site of measurement</t>
+  </si>
+  <si>
+    <t>itemName="Body temperature"の場合</t>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pulse Rate</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004.1]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004.1]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[at1019.1]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/data[at0002]/events[at0003]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/time</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -195,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +433,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,11 +802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,7 +818,8 @@
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -652,6 +890,15 @@
         <v>7</v>
       </c>
       <c r="F4" s="3"/>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
@@ -666,6 +913,15 @@
         <v>12</v>
       </c>
       <c r="F5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
@@ -682,44 +938,54 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
+      <c r="F8" s="3"/>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -727,81 +993,105 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
+      <c r="H13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -809,154 +1099,183 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
+      <c r="F14" s="3"/>
+      <c r="J14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="F18" s="3"/>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
         <v>1.2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <v>1.3</v>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>1.4</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -965,12 +1284,281 @@
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="I26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="H35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="H38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/mapping/mml4_vital_sign.xlsx
+++ b/mapping/mml4_vital_sign.xlsx
@@ -21,7 +21,22 @@
     <author>skoba</author>
   </authors>
   <commentList>
-    <comment ref="H21" authorId="0">
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>共通部分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0">
+    <comment ref="H29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,12 +66,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="H34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>脈拍を体位別に測ることはないと考えられる</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Systolic blood pressureのコメントに追加
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="244">
   <si>
     <t>Elements</t>
   </si>
@@ -359,10 +404,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/protocol[at0020]/items[at0021]/value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Site of measurement</t>
   </si>
   <si>
@@ -385,6 +426,9 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Comment</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -401,6 +445,678 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="Systolic blood pressure"の場合</t>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/data[at0003]/items[at0004]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>mmlVs:device</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>mmlVs:position</t>
+  </si>
+  <si>
+    <t>mmlVs03</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>mmlVs:bodyLocation</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>mmlVs:protMemo</t>
+  </si>
+  <si>
+    <t>mmlVs:vsMemo</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
+  </si>
+  <si>
+    <t>Device name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Location of measurement</t>
+  </si>
+  <si>
+    <t>共通部分</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体温(itemName="Body temperature"の場合)</t>
+    <rPh sb="0" eb="2">
+      <t>タイオン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Synopsis</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-EVALUATION.clinical_synopsis.v1]/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>脈拍(itemName="Pulse rate"の場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ミャクハク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Device name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[at0.2]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/protocol[at0020]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/protocol[at0020]/items[at0021]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/protocol[at0020]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血圧の場合(itemName="Systolic blood prssure"とitemName="Diastolic blood pressure"の組み合わせ)</t>
+    <rPh sb="0" eb="2">
+      <t>ケツアツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="Diastolic blood pressure"の場合</t>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/data[at0003]/items[at0005]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/data[at0003]/items[at0005]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/data[at0003]/items[at0033]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収縮期</t>
+    <rPh sb="0" eb="3">
+      <t>シュウシュクキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/data[at0003]/items[at0004]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/data[at0003]/items[at0004]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <rPh sb="0" eb="2">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拡張期</t>
+    <rPh sb="0" eb="3">
+      <t>カクチョウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/protocol[at0011]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/protocol[at0011]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計測部位</t>
+    <rPh sb="0" eb="2">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/protocol[at0011]/items[at1033]/items[at0014]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/protocol[at0011]/items[at1035]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体位</t>
+    <rPh sb="0" eb="2">
+      <t>タイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.blood_pressure.v1]/data[at0001]/events[at0006]/state[at0007]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SpO2（itemName="SpO2"の場合）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="SpO2"の場合</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spO2</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0006]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0006]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0036]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/data[at0001]/events[at0002]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sensor type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[at0009]</t>
+  </si>
+  <si>
+    <t>Sensor Site</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Device Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[at0020]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaO2(itenName="SaO2"の場合)</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="SaO2"の場合</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_PROPORTION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.7]/nominator</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.7]/denominator</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>%の場合は100</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.7]/type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>%の場合は 2:integer</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Overall interpretation</t>
+  </si>
+  <si>
+    <t>Overall interpretation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Diagnostic service</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Diagnostic service</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Confounding factors</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/state[at0.91]/items[at0.93]</t>
+  </si>
+  <si>
+    <t>PaO2(itemName="PaO2"の場合）</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="PaO2"の場合</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PaO2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.11]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.11]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCO2(itemName="PCO2"の場合）</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="PCO2"の場合</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCO2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.12]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.12]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Height(itemName="Height"の場合）</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="Height"の場合</t>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0004]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0018]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/data[at0001]/events[at0002]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/data[at0001]/events[at0002]/state[at0013]/items[at0014]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Weight(itemName="Weight"の場合）</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="Weight"の場合</t>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_weight.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_weight.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_weight.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0024]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_weight.v1]/data[at0002]/events[at0003]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_weight.v1]/protocol[at0015]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_weight.v1]/protocol[at0015]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Respiratory rate(itemName="Respiratory rate"の場合）</t>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="Respiratory rate"の場合</t>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blood glucose(itemName="Blood glucose"の場合）</t>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName="Blood glucose"の場合</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blood glucose</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.2]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.2]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Overall interpretation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.specimen.v1]/items[openEHR-EHR-CLUSTER.anatomical_location.v1]/items[at0001]</t>
+  </si>
+  <si>
+    <t>Body site</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.respiration.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0004]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.respiration.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0004]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.respiration.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0024]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.respiration.v1]/data[at0001]/events[at0002]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Confounding factors</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.respiration.v1]/data[at0001]/events[at0002]/state[at0022]/items[at0056]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Others(itemName="EtCO2"など、上記のどれにも当てはまらない場合）</t>
+    <rPh sb="26" eb="28">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Test name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Body site name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.specimen.v1]/items[openEHR-EHR-CLUSTER.anatomical_location.v1]/items[at0001]/value</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -463,12 +1179,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -477,7 +1273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,6 +1297,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,10 +1678,10 @@
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -849,709 +1708,4321 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="H4" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="7" t="s">
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="J10" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="7" t="s">
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="H12" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="J14" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="7" t="s">
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="H16" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="J18" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="7" t="s">
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>1.2</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="H23" t="s">
+      <c r="E27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="J23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="J42" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J24" t="s">
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="I72" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B81" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C81" s="14"/>
+      <c r="D81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="H25" t="s">
+      <c r="F81" s="14"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="14"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="14"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" s="14"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="14"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="14"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="H102" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="18"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J104" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="12"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="14"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="14"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A113" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A114" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="14"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A115" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J115" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A116" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A117" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" s="15"/>
+      <c r="H117" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J117" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A118" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="14"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J118" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J119" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A122" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="12"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A123" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A124" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A125" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="14"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J125" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A126" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A127" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" s="14"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A128" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J128" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A129" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="14"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A130" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="14"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J130" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A131" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J131" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A132" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G132" s="15"/>
+      <c r="H132" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J132" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A133" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="14"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J133" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="18"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I134" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J134" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A137" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="12"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A138" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A139" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="14"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A140" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="14"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J140" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A141" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A142" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" s="14"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I142" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J142" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A143" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J143" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A144" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="14"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A145" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="14"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J145" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A146" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="14"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J146" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A147" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G147" s="15"/>
+      <c r="H147" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J147" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A148" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="16"/>
+    </row>
+    <row r="149" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="18"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J149" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A152" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" s="10"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="12"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A153" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A154" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="16"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A155" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J155" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A156" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A157" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F157" s="14"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J157" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A158" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J158" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A159" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="14"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="16"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A160" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J160" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A161" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="14"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J161" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A162" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G162" s="15"/>
+      <c r="H162" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J162" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A163" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="14"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="16"/>
+    </row>
+    <row r="164" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="18"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I164" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J164" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A167" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" s="10"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="12"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A168" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I168" s="15"/>
+      <c r="J168" s="16"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A169" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="16"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A170" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="14"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I170" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J170" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A171" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A172" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" s="14"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I172" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J172" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A173" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J173" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A174" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="14"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="16"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A175" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="14"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J175" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A176" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="14"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J176" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A177" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G177" s="15"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="16"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A178" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="14"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J178" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="18"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I179" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J179" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A182" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" s="10"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="12"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A183" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I183" s="15"/>
+      <c r="J183" s="16"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A184" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="14"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="16"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A185" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="14"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I185" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J185" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A186" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A187" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F187" s="14"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J187" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A188" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J188" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A189" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" s="14"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="16"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A190" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190" s="14"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="16"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A191" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="14"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="16"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A192" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G192" s="15"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="16"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A193" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="14"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="16"/>
+    </row>
+    <row r="194" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" s="18"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I194" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J194" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A197" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F197" s="10"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="12"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A198" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I198" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J198" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A199" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" s="14"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J199" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A200" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="14"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="I200" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J200" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A201" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A202" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F202" s="14"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I202" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J202" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A203" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J203" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A204" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="14"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="16"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A205" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="14"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I205" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="I26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="H28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="H33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="H35" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="I36" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="H38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" t="s">
-        <v>87</v>
+      <c r="J205" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A206" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" s="14"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I206" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J206" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A207" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G207" s="15"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="8"/>
+      <c r="J207" s="16"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A208" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="14"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I208" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J208" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209" s="18"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I209" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J209" s="20" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml4_vital_sign.xlsx
+++ b/mapping/mml4_vital_sign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="246">
   <si>
     <t>Elements</t>
   </si>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Identifier</t>
   </si>
   <si>
@@ -299,14 +295,6 @@
   </si>
   <si>
     <t>DV_TEXT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/mappings/match</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -353,17 +341,6 @@
   </si>
   <si>
     <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[openEHR-EHR-CLUSTER.person_name.v1]/items[at0001]/value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0011]</t>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0011]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0011]/mappings/match</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1117,6 +1094,38 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.specimen.v1]/items[openEHR-EHR-CLUSTER.anatomical_location.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Facility']/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Facility']/items[at0011]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Facility']/items[at0011]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Facility']/items[at0011]/mappings/match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Profesional Identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0013]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0013]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0013]/mappings/match</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1664,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1710,7 +1719,7 @@
     </row>
     <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1780,7 +1789,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="K5" s="16"/>
     </row>
@@ -1799,13 +1808,13 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="K6" s="16"/>
     </row>
@@ -1828,7 +1837,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -1841,11 +1850,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -1869,10 +1878,10 @@
         <v>55</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="16"/>
     </row>
@@ -1893,13 +1902,13 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K10" s="16"/>
     </row>
@@ -1920,7 +1929,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K11" s="16"/>
     </row>
@@ -1933,11 +1942,11 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K12" s="16"/>
     </row>
@@ -1964,7 +1973,7 @@
         <v>57</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K13" s="16"/>
     </row>
@@ -1985,13 +1994,13 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K14" s="16"/>
     </row>
@@ -2012,7 +2021,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K15" s="16"/>
     </row>
@@ -2025,11 +2034,11 @@
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K16" s="16"/>
     </row>
@@ -2053,10 +2062,10 @@
         <v>54</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K17" s="16"/>
     </row>
@@ -2076,12 +2085,14 @@
         <v>24</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -2102,7 +2113,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -2115,11 +2126,11 @@
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2128,7 +2139,7 @@
         <v>1.5</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25" t="s">
@@ -2140,13 +2151,13 @@
       <c r="F21" s="26"/>
       <c r="G21" s="19"/>
       <c r="H21" s="27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K21" s="20"/>
     </row>
@@ -2164,7 +2175,7 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2212,7 +2223,7 @@
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -2256,13 +2267,13 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K27" s="16"/>
     </row>
@@ -2287,7 +2298,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K28" s="16"/>
     </row>
@@ -2308,13 +2319,13 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K29" s="16"/>
     </row>
@@ -2334,10 +2345,10 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K30" s="16"/>
     </row>
@@ -2377,22 +2388,22 @@
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14" t="s">
@@ -2404,22 +2415,22 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14" t="s">
@@ -2429,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="8"/>
@@ -2439,10 +2450,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
@@ -2454,22 +2465,22 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
@@ -2481,19 +2492,19 @@
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K36" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -2531,7 +2542,7 @@
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
@@ -2573,13 +2584,13 @@
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -2603,7 +2614,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -2623,13 +2634,13 @@
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -2648,10 +2659,10 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -2694,10 +2705,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
@@ -2709,21 +2720,21 @@
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14" t="s">
@@ -2733,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="14"/>
@@ -2742,10 +2753,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14" t="s">
@@ -2757,21 +2768,21 @@
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18" t="s">
@@ -2783,13 +2794,13 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -2802,7 +2813,7 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2845,7 +2856,7 @@
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
@@ -2887,13 +2898,13 @@
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2917,7 +2928,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2937,13 +2948,13 @@
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2963,7 +2974,7 @@
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
@@ -3005,13 +3016,13 @@
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -3035,7 +3046,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -3055,13 +3066,13 @@
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -3080,10 +3091,10 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -3121,21 +3132,21 @@
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14" t="s">
@@ -3147,21 +3158,21 @@
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14" t="s">
@@ -3171,25 +3182,25 @@
         <v>7</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J70" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14" t="s">
@@ -3201,21 +3212,21 @@
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18" t="s">
@@ -3227,18 +3238,18 @@
       <c r="F72" s="18"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -3276,7 +3287,7 @@
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
@@ -3318,13 +3329,13 @@
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -3348,7 +3359,7 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -3368,13 +3379,13 @@
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -3393,10 +3404,10 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -3434,21 +3445,21 @@
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J84" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="I84" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J84" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14" t="s">
@@ -3460,21 +3471,21 @@
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14" t="s">
@@ -3484,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -3493,10 +3504,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14" t="s">
@@ -3508,21 +3519,21 @@
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
@@ -3534,18 +3545,18 @@
       <c r="F88" s="18"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -3583,7 +3594,7 @@
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
@@ -3626,10 +3637,10 @@
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
       <c r="I94" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -3652,10 +3663,10 @@
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -3668,10 +3679,10 @@
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -3691,13 +3702,13 @@
       <c r="F97" s="14"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -3716,10 +3727,10 @@
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -3757,21 +3768,21 @@
       <c r="F100" s="14"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="14" t="s">
@@ -3783,21 +3794,21 @@
       <c r="F101" s="14"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="14" t="s">
@@ -3807,25 +3818,25 @@
         <v>7</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="14" t="s">
@@ -3837,21 +3848,21 @@
       <c r="F103" s="14"/>
       <c r="G103" s="15"/>
       <c r="H103" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="18" t="s">
@@ -3863,18 +3874,18 @@
       <c r="F104" s="18"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
@@ -3912,7 +3923,7 @@
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="16"/>
@@ -3954,13 +3965,13 @@
       <c r="F110" s="14"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
@@ -3984,7 +3995,7 @@
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
@@ -4004,13 +4015,13 @@
       <c r="F112" s="14"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
@@ -4029,10 +4040,10 @@
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
@@ -4070,21 +4081,21 @@
       <c r="F115" s="14"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J115" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14" t="s">
@@ -4096,21 +4107,21 @@
       <c r="F116" s="14"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="14" t="s">
@@ -4120,25 +4131,25 @@
         <v>7</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14" t="s">
@@ -4150,21 +4161,21 @@
       <c r="F118" s="14"/>
       <c r="G118" s="15"/>
       <c r="H118" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J118" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
@@ -4176,18 +4187,18 @@
       <c r="F119" s="18"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J119" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
@@ -4225,7 +4236,7 @@
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
@@ -4267,13 +4278,13 @@
       <c r="F125" s="14"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J125" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
@@ -4297,7 +4308,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
@@ -4317,13 +4328,13 @@
       <c r="F127" s="14"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J127" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
@@ -4342,10 +4353,10 @@
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J128" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
@@ -4383,21 +4394,21 @@
       <c r="F130" s="14"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J130" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14" t="s">
@@ -4409,21 +4420,21 @@
       <c r="F131" s="14"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J131" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14" t="s">
@@ -4433,25 +4444,25 @@
         <v>7</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G132" s="15"/>
       <c r="H132" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J132" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14" t="s">
@@ -4463,21 +4474,21 @@
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
       <c r="H133" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J133" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="18" t="s">
@@ -4489,18 +4500,18 @@
       <c r="F134" s="18"/>
       <c r="G134" s="19"/>
       <c r="H134" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J134" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -4538,7 +4549,7 @@
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="16"/>
@@ -4580,13 +4591,13 @@
       <c r="F140" s="14"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J140" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
@@ -4610,7 +4621,7 @@
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
       <c r="J141" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -4630,13 +4641,13 @@
       <c r="F142" s="14"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J142" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
@@ -4655,10 +4666,10 @@
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J143" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -4696,21 +4707,21 @@
       <c r="F145" s="14"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J145" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14" t="s">
@@ -4722,21 +4733,21 @@
       <c r="F146" s="14"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J146" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="14" t="s">
@@ -4746,25 +4757,25 @@
         <v>7</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G147" s="15"/>
       <c r="H147" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J147" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="14" t="s">
@@ -4781,10 +4792,10 @@
     </row>
     <row r="149" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="18" t="s">
@@ -4796,18 +4807,18 @@
       <c r="F149" s="18"/>
       <c r="G149" s="19"/>
       <c r="H149" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J149" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
@@ -4845,7 +4856,7 @@
       </c>
       <c r="G153" s="15"/>
       <c r="H153" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="16"/>
@@ -4887,13 +4898,13 @@
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
       <c r="H155" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J155" s="16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
@@ -4917,7 +4928,7 @@
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
       <c r="J156" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
@@ -4937,13 +4948,13 @@
       <c r="F157" s="14"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I157" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -4962,10 +4973,10 @@
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -5003,21 +5014,21 @@
       <c r="F160" s="14"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J160" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C161" s="14"/>
       <c r="D161" s="14" t="s">
@@ -5029,21 +5040,21 @@
       <c r="F161" s="14"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J161" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C162" s="14"/>
       <c r="D162" s="14" t="s">
@@ -5053,25 +5064,25 @@
         <v>7</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G162" s="15"/>
       <c r="H162" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J162" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C163" s="14"/>
       <c r="D163" s="14" t="s">
@@ -5088,10 +5099,10 @@
     </row>
     <row r="164" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C164" s="18"/>
       <c r="D164" s="18" t="s">
@@ -5103,18 +5114,18 @@
       <c r="F164" s="18"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I164" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J164" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -5152,7 +5163,7 @@
       </c>
       <c r="G168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="16"/>
@@ -5194,13 +5205,13 @@
       <c r="F170" s="14"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J170" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
@@ -5224,7 +5235,7 @@
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
       <c r="J171" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
@@ -5244,13 +5255,13 @@
       <c r="F172" s="14"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I172" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J172" s="16" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
@@ -5269,10 +5280,10 @@
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
       <c r="I173" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J173" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
@@ -5310,21 +5321,21 @@
       <c r="F175" s="14"/>
       <c r="G175" s="15"/>
       <c r="H175" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J175" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14" t="s">
@@ -5336,21 +5347,21 @@
       <c r="F176" s="14"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J176" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14" t="s">
@@ -5360,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G177" s="15"/>
       <c r="H177" s="8"/>
@@ -5369,10 +5380,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14" t="s">
@@ -5384,21 +5395,21 @@
       <c r="F178" s="14"/>
       <c r="G178" s="15"/>
       <c r="H178" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J178" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="18" t="s">
@@ -5410,18 +5421,18 @@
       <c r="F179" s="18"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J179" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
@@ -5459,7 +5470,7 @@
       </c>
       <c r="G183" s="15"/>
       <c r="H183" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="16"/>
@@ -5501,13 +5512,13 @@
       <c r="F185" s="14"/>
       <c r="G185" s="15"/>
       <c r="H185" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I185" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J185" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
@@ -5531,7 +5542,7 @@
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
       <c r="J186" s="16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
@@ -5551,13 +5562,13 @@
       <c r="F187" s="14"/>
       <c r="G187" s="15"/>
       <c r="H187" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
@@ -5576,10 +5587,10 @@
       <c r="G188" s="15"/>
       <c r="H188" s="15"/>
       <c r="I188" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J188" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
@@ -5622,10 +5633,10 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14" t="s">
@@ -5642,10 +5653,10 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14" t="s">
@@ -5655,7 +5666,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G192" s="15"/>
       <c r="H192" s="8"/>
@@ -5664,10 +5675,10 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14" t="s">
@@ -5684,10 +5695,10 @@
     </row>
     <row r="194" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="18" t="s">
@@ -5699,18 +5710,18 @@
       <c r="F194" s="18"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I194" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
@@ -5748,13 +5759,13 @@
       </c>
       <c r="G198" s="15"/>
       <c r="H198" s="15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J198" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
@@ -5774,13 +5785,13 @@
       <c r="F199" s="14"/>
       <c r="G199" s="15"/>
       <c r="H199" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J199" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
@@ -5800,13 +5811,13 @@
       <c r="F200" s="14"/>
       <c r="G200" s="15"/>
       <c r="H200" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I200" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J200" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
@@ -5830,7 +5841,7 @@
       <c r="H201" s="15"/>
       <c r="I201" s="15"/>
       <c r="J201" s="16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
@@ -5850,13 +5861,13 @@
       <c r="F202" s="14"/>
       <c r="G202" s="15"/>
       <c r="H202" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I202" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J202" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
@@ -5875,10 +5886,10 @@
       <c r="G203" s="15"/>
       <c r="H203" s="15"/>
       <c r="I203" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J203" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
@@ -5916,21 +5927,21 @@
       <c r="F205" s="14"/>
       <c r="G205" s="15"/>
       <c r="H205" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J205" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14" t="s">
@@ -5942,21 +5953,21 @@
       <c r="F206" s="14"/>
       <c r="G206" s="15"/>
       <c r="H206" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I206" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J206" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14" t="s">
@@ -5966,7 +5977,7 @@
         <v>7</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G207" s="15"/>
       <c r="H207" s="8"/>
@@ -5975,10 +5986,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="14" t="s">
@@ -5990,21 +6001,21 @@
       <c r="F208" s="14"/>
       <c r="G208" s="15"/>
       <c r="H208" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="18" t="s">
@@ -6016,13 +6027,13 @@
       <c r="F209" s="18"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I209" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml4_vital_sign.xlsx
+++ b/mapping/mml4_vital_sign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="8580"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="247">
   <si>
     <t>Elements</t>
   </si>
@@ -367,14 +367,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/state[at0029]/items[at0041]</t>
-  </si>
-  <si>
     <t>Description of thermal stress</t>
-  </si>
-  <si>
-    <t>EventPointTime</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DV_TEXT</t>
@@ -476,9 +469,6 @@
   </si>
   <si>
     <t>mmlVs:vsMemo</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
   </si>
   <si>
     <t>Device name</t>
@@ -687,9 +677,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[at0009]</t>
-  </si>
-  <si>
     <t>Sensor Site</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -760,9 +747,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -771,9 +755,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -788,9 +769,6 @@
   <si>
     <t>Confounding factors</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/state[at0.91]/items[at0.93]</t>
   </si>
   <si>
     <t>PaO2(itemName="PaO2"の場合）</t>
@@ -891,9 +869,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1005,9 +980,6 @@
   <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.specimen.v1]/items[openEHR-EHR-CLUSTER.anatomical_location.v1]/items[at0001]</t>
   </si>
   <si>
     <t>Body site</t>
@@ -1063,9 +1035,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078]/value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1078,9 +1047,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/time</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1127,6 +1093,53 @@
   <si>
     <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[at0013]/mappings/match</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/state[at0.91]/items[at0.93]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.specimen.v1]/items[openEHR-EHR-CLUSTER.anatomical_location.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/state[at0.91]/items[at0.93]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[at0009]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/state[at0029]/items[at0041]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
   </si>
 </sst>
 </file>
@@ -1673,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1719,7 +1732,7 @@
     </row>
     <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1789,7 +1802,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K5" s="16"/>
     </row>
@@ -1814,7 +1827,7 @@
         <v>61</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K6" s="16"/>
     </row>
@@ -1837,7 +1850,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -1854,7 +1867,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -2086,13 +2099,13 @@
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -2113,7 +2126,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -2130,7 +2143,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2139,7 +2152,7 @@
         <v>1.5</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25" t="s">
@@ -2151,13 +2164,13 @@
       <c r="F21" s="26"/>
       <c r="G21" s="19"/>
       <c r="H21" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K21" s="20"/>
     </row>
@@ -2175,7 +2188,7 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2267,13 +2280,13 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>74</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K27" s="16"/>
     </row>
@@ -2298,7 +2311,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K28" s="16"/>
     </row>
@@ -2319,13 +2332,13 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>61</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="16"/>
     </row>
@@ -2345,10 +2358,10 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K30" s="16"/>
     </row>
@@ -2388,22 +2401,22 @@
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14" t="s">
@@ -2415,22 +2428,22 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14" t="s">
@@ -2440,7 +2453,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="8"/>
@@ -2450,10 +2463,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
@@ -2465,22 +2478,22 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
@@ -2492,19 +2505,19 @@
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>63</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="K36" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -2542,7 +2555,7 @@
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
@@ -2634,13 +2647,13 @@
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>61</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -2659,10 +2672,10 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -2705,10 +2718,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
@@ -2720,21 +2733,21 @@
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14" t="s">
@@ -2744,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="14"/>
@@ -2753,10 +2766,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14" t="s">
@@ -2768,21 +2781,21 @@
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18" t="s">
@@ -2794,13 +2807,13 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>63</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -2813,7 +2826,7 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2856,7 +2869,7 @@
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
@@ -2898,13 +2911,13 @@
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2928,7 +2941,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2948,13 +2961,13 @@
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2974,7 +2987,7 @@
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
@@ -3016,13 +3029,13 @@
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -3046,7 +3059,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -3066,13 +3079,13 @@
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -3091,10 +3104,10 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -3132,21 +3145,21 @@
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14" t="s">
@@ -3158,21 +3171,21 @@
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14" t="s">
@@ -3182,25 +3195,25 @@
         <v>7</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14" t="s">
@@ -3212,21 +3225,21 @@
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18" t="s">
@@ -3238,18 +3251,18 @@
       <c r="F72" s="18"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I72" s="19" t="s">
         <v>61</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -3287,7 +3300,7 @@
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
@@ -3329,13 +3342,13 @@
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -3359,7 +3372,7 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -3379,13 +3392,13 @@
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -3404,10 +3417,10 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -3445,21 +3458,21 @@
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14" t="s">
@@ -3471,21 +3484,21 @@
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14" t="s">
@@ -3495,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -3504,10 +3517,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14" t="s">
@@ -3519,21 +3532,21 @@
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
@@ -3545,18 +3558,18 @@
       <c r="F88" s="18"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -3594,7 +3607,7 @@
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
@@ -3637,10 +3650,10 @@
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
       <c r="I94" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -3663,10 +3676,10 @@
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -3679,10 +3692,10 @@
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -3702,13 +3715,13 @@
       <c r="F97" s="14"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -3727,10 +3740,10 @@
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -3768,21 +3781,21 @@
       <c r="F100" s="14"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="14" t="s">
@@ -3794,21 +3807,21 @@
       <c r="F101" s="14"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="14" t="s">
@@ -3818,25 +3831,25 @@
         <v>7</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="14" t="s">
@@ -3848,21 +3861,21 @@
       <c r="F103" s="14"/>
       <c r="G103" s="15"/>
       <c r="H103" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="18" t="s">
@@ -3874,18 +3887,18 @@
       <c r="F104" s="18"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
@@ -3923,7 +3936,7 @@
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="16"/>
@@ -3965,13 +3978,13 @@
       <c r="F110" s="14"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
@@ -3995,7 +4008,7 @@
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
@@ -4015,13 +4028,13 @@
       <c r="F112" s="14"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
@@ -4040,10 +4053,10 @@
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
@@ -4081,21 +4094,21 @@
       <c r="F115" s="14"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J115" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14" t="s">
@@ -4107,21 +4120,21 @@
       <c r="F116" s="14"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="14" t="s">
@@ -4131,25 +4144,25 @@
         <v>7</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I117" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14" t="s">
@@ -4161,21 +4174,21 @@
       <c r="F118" s="14"/>
       <c r="G118" s="15"/>
       <c r="H118" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I118" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J118" s="16" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
@@ -4187,18 +4200,18 @@
       <c r="F119" s="18"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J119" s="20" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
@@ -4236,7 +4249,7 @@
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
@@ -4278,13 +4291,13 @@
       <c r="F125" s="14"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J125" s="16" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
@@ -4308,7 +4321,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
@@ -4328,13 +4341,13 @@
       <c r="F127" s="14"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J127" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
@@ -4353,10 +4366,10 @@
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J128" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
@@ -4394,21 +4407,21 @@
       <c r="F130" s="14"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J130" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14" t="s">
@@ -4420,21 +4433,21 @@
       <c r="F131" s="14"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I131" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J131" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14" t="s">
@@ -4444,25 +4457,25 @@
         <v>7</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G132" s="15"/>
       <c r="H132" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I132" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J132" s="16" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14" t="s">
@@ -4474,21 +4487,21 @@
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
       <c r="H133" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I133" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J133" s="16" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="18" t="s">
@@ -4500,18 +4513,18 @@
       <c r="F134" s="18"/>
       <c r="G134" s="19"/>
       <c r="H134" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J134" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -4549,7 +4562,7 @@
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="16"/>
@@ -4591,13 +4604,13 @@
       <c r="F140" s="14"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J140" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
@@ -4621,7 +4634,7 @@
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
       <c r="J141" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -4641,13 +4654,13 @@
       <c r="F142" s="14"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J142" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
@@ -4666,10 +4679,10 @@
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J143" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -4707,21 +4720,21 @@
       <c r="F145" s="14"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I145" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J145" s="16" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14" t="s">
@@ -4733,21 +4746,21 @@
       <c r="F146" s="14"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I146" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J146" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="14" t="s">
@@ -4757,25 +4770,25 @@
         <v>7</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G147" s="15"/>
       <c r="H147" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I147" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J147" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="14" t="s">
@@ -4792,10 +4805,10 @@
     </row>
     <row r="149" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="18" t="s">
@@ -4807,18 +4820,18 @@
       <c r="F149" s="18"/>
       <c r="G149" s="19"/>
       <c r="H149" s="19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J149" s="20" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
@@ -4856,7 +4869,7 @@
       </c>
       <c r="G153" s="15"/>
       <c r="H153" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="16"/>
@@ -4898,13 +4911,13 @@
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
       <c r="H155" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J155" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
@@ -4928,7 +4941,7 @@
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
       <c r="J156" s="16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
@@ -4948,13 +4961,13 @@
       <c r="F157" s="14"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I157" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -4973,10 +4986,10 @@
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -5014,21 +5027,21 @@
       <c r="F160" s="14"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J160" s="16" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C161" s="14"/>
       <c r="D161" s="14" t="s">
@@ -5040,21 +5053,21 @@
       <c r="F161" s="14"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I161" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J161" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C162" s="14"/>
       <c r="D162" s="14" t="s">
@@ -5064,25 +5077,25 @@
         <v>7</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G162" s="15"/>
       <c r="H162" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J162" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C163" s="14"/>
       <c r="D163" s="14" t="s">
@@ -5099,10 +5112,10 @@
     </row>
     <row r="164" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C164" s="18"/>
       <c r="D164" s="18" t="s">
@@ -5114,18 +5127,18 @@
       <c r="F164" s="18"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I164" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J164" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="I164" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J164" s="20" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -5163,7 +5176,7 @@
       </c>
       <c r="G168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="16"/>
@@ -5205,13 +5218,13 @@
       <c r="F170" s="14"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J170" s="16" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
@@ -5235,7 +5248,7 @@
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
       <c r="J171" s="16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
@@ -5255,13 +5268,13 @@
       <c r="F172" s="14"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I172" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J172" s="16" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
@@ -5280,10 +5293,10 @@
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
       <c r="I173" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J173" s="16" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
@@ -5321,21 +5334,21 @@
       <c r="F175" s="14"/>
       <c r="G175" s="15"/>
       <c r="H175" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J175" s="16" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14" t="s">
@@ -5347,21 +5360,21 @@
       <c r="F176" s="14"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I176" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J176" s="16" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14" t="s">
@@ -5371,7 +5384,7 @@
         <v>7</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G177" s="15"/>
       <c r="H177" s="8"/>
@@ -5380,10 +5393,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14" t="s">
@@ -5395,21 +5408,21 @@
       <c r="F178" s="14"/>
       <c r="G178" s="15"/>
       <c r="H178" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I178" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J178" s="16" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="18" t="s">
@@ -5421,18 +5434,18 @@
       <c r="F179" s="18"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I179" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J179" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="I179" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J179" s="20" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
@@ -5470,7 +5483,7 @@
       </c>
       <c r="G183" s="15"/>
       <c r="H183" s="15" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="16"/>
@@ -5512,13 +5525,13 @@
       <c r="F185" s="14"/>
       <c r="G185" s="15"/>
       <c r="H185" s="15" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I185" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J185" s="16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
@@ -5542,7 +5555,7 @@
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
       <c r="J186" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
@@ -5562,13 +5575,13 @@
       <c r="F187" s="14"/>
       <c r="G187" s="15"/>
       <c r="H187" s="15" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
@@ -5587,10 +5600,10 @@
       <c r="G188" s="15"/>
       <c r="H188" s="15"/>
       <c r="I188" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J188" s="16" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
@@ -5633,10 +5646,10 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14" t="s">
@@ -5653,10 +5666,10 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14" t="s">
@@ -5666,7 +5679,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G192" s="15"/>
       <c r="H192" s="8"/>
@@ -5675,10 +5688,10 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14" t="s">
@@ -5695,10 +5708,10 @@
     </row>
     <row r="194" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="18" t="s">
@@ -5710,18 +5723,18 @@
       <c r="F194" s="18"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I194" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
@@ -5759,13 +5772,13 @@
       </c>
       <c r="G198" s="15"/>
       <c r="H198" s="15" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I198" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J198" s="16" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
@@ -5785,13 +5798,13 @@
       <c r="F199" s="14"/>
       <c r="G199" s="15"/>
       <c r="H199" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="I199" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J199" s="16" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
@@ -5811,13 +5824,13 @@
       <c r="F200" s="14"/>
       <c r="G200" s="15"/>
       <c r="H200" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="I200" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J200" s="16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
@@ -5841,7 +5854,7 @@
       <c r="H201" s="15"/>
       <c r="I201" s="15"/>
       <c r="J201" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
@@ -5861,13 +5874,13 @@
       <c r="F202" s="14"/>
       <c r="G202" s="15"/>
       <c r="H202" s="15" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I202" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J202" s="16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
@@ -5886,10 +5899,10 @@
       <c r="G203" s="15"/>
       <c r="H203" s="15"/>
       <c r="I203" s="15" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J203" s="16" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
@@ -5927,21 +5940,21 @@
       <c r="F205" s="14"/>
       <c r="G205" s="15"/>
       <c r="H205" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I205" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J205" s="16" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14" t="s">
@@ -5953,21 +5966,21 @@
       <c r="F206" s="14"/>
       <c r="G206" s="15"/>
       <c r="H206" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I206" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J206" s="16" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14" t="s">
@@ -5977,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G207" s="15"/>
       <c r="H207" s="8"/>
@@ -5986,10 +5999,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="14" t="s">
@@ -6001,21 +6014,21 @@
       <c r="F208" s="14"/>
       <c r="G208" s="15"/>
       <c r="H208" s="8" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="I208" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="18" t="s">
@@ -6027,13 +6040,13 @@
       <c r="F209" s="18"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I209" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml4_vital_sign.xlsx
+++ b/mapping/mml4_vital_sign.xlsx
@@ -940,13 +940,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Blood glucose(itemName="Blood glucose"の場合）</t>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>itemName="Blood glucose"の場合</t>
     <rPh sb="25" eb="27">
       <t>バアイ</t>
@@ -1140,6 +1133,13 @@
   </si>
   <si>
     <t>DV_DATE_TIME</t>
+  </si>
+  <si>
+    <t>Blood sugar(itemName="Blood sugar"の場合）</t>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1686,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1802,7 +1802,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K5" s="16"/>
     </row>
@@ -1827,7 +1827,7 @@
         <v>61</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K6" s="16"/>
     </row>
@@ -1850,7 +1850,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -2099,13 +2099,13 @@
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2358,7 +2358,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>87</v>
@@ -2511,7 +2511,7 @@
         <v>63</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K36" s="20"/>
     </row>
@@ -2653,7 +2653,7 @@
         <v>61</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -2672,7 +2672,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>89</v>
@@ -3104,7 +3104,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J66" s="16" t="s">
         <v>129</v>
@@ -3417,7 +3417,7 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J82" s="16" t="s">
         <v>143</v>
@@ -3538,7 +3538,7 @@
         <v>63</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3740,7 +3740,7 @@
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J98" s="16" t="s">
         <v>94</v>
@@ -3813,7 +3813,7 @@
         <v>63</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -3841,7 +3841,7 @@
         <v>63</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
@@ -3867,7 +3867,7 @@
         <v>63</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3893,7 +3893,7 @@
         <v>164</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4053,7 +4053,7 @@
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J113" s="16" t="s">
         <v>94</v>
@@ -4126,7 +4126,7 @@
         <v>63</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
@@ -4154,7 +4154,7 @@
         <v>63</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
@@ -4180,7 +4180,7 @@
         <v>63</v>
       </c>
       <c r="J118" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
         <v>164</v>
       </c>
       <c r="J119" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4366,7 +4366,7 @@
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J128" s="16" t="s">
         <v>94</v>
@@ -4467,7 +4467,7 @@
         <v>63</v>
       </c>
       <c r="J132" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
@@ -4493,7 +4493,7 @@
         <v>63</v>
       </c>
       <c r="J133" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J143" s="16" t="s">
         <v>182</v>
@@ -4826,7 +4826,7 @@
         <v>164</v>
       </c>
       <c r="J149" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4986,7 +4986,7 @@
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J158" s="16" t="s">
         <v>193</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="166" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="16"/>
@@ -5218,13 +5218,13 @@
       <c r="F170" s="14"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I170" s="14" t="s">
         <v>91</v>
       </c>
       <c r="J170" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
@@ -5248,7 +5248,7 @@
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
       <c r="J171" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
@@ -5268,13 +5268,13 @@
       <c r="F172" s="14"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I172" s="14" t="s">
         <v>78</v>
       </c>
       <c r="J172" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
@@ -5293,10 +5293,10 @@
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
       <c r="I173" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J173" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
@@ -5340,7 +5340,7 @@
         <v>63</v>
       </c>
       <c r="J175" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
@@ -5366,7 +5366,7 @@
         <v>63</v>
       </c>
       <c r="J176" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
@@ -5408,13 +5408,13 @@
       <c r="F178" s="14"/>
       <c r="G178" s="15"/>
       <c r="H178" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I178" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J178" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5525,13 +5525,13 @@
       <c r="F185" s="14"/>
       <c r="G185" s="15"/>
       <c r="H185" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I185" s="14" t="s">
         <v>91</v>
       </c>
       <c r="J185" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
@@ -5555,7 +5555,7 @@
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
       <c r="J186" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
@@ -5575,13 +5575,13 @@
       <c r="F187" s="14"/>
       <c r="G187" s="15"/>
       <c r="H187" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I187" s="14" t="s">
         <v>78</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
@@ -5600,10 +5600,10 @@
       <c r="G188" s="15"/>
       <c r="H188" s="15"/>
       <c r="I188" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J188" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
@@ -5723,18 +5723,18 @@
       <c r="F194" s="18"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I194" s="19" t="s">
         <v>164</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
@@ -5772,13 +5772,13 @@
       </c>
       <c r="G198" s="15"/>
       <c r="H198" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I198" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J198" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
@@ -5798,13 +5798,13 @@
       <c r="F199" s="14"/>
       <c r="G199" s="15"/>
       <c r="H199" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I199" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J199" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
@@ -5824,13 +5824,13 @@
       <c r="F200" s="14"/>
       <c r="G200" s="15"/>
       <c r="H200" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I200" s="14" t="s">
         <v>91</v>
       </c>
       <c r="J200" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
@@ -5854,7 +5854,7 @@
       <c r="H201" s="15"/>
       <c r="I201" s="15"/>
       <c r="J201" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
@@ -5874,13 +5874,13 @@
       <c r="F202" s="14"/>
       <c r="G202" s="15"/>
       <c r="H202" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I202" s="14" t="s">
         <v>78</v>
       </c>
       <c r="J202" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
@@ -5899,10 +5899,10 @@
       <c r="G203" s="15"/>
       <c r="H203" s="15"/>
       <c r="I203" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J203" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
@@ -5946,7 +5946,7 @@
         <v>61</v>
       </c>
       <c r="J205" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
@@ -5972,7 +5972,7 @@
         <v>63</v>
       </c>
       <c r="J206" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
@@ -6014,13 +6014,13 @@
       <c r="F208" s="14"/>
       <c r="G208" s="15"/>
       <c r="H208" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I208" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6040,13 +6040,13 @@
       <c r="F209" s="18"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I209" s="19" t="s">
         <v>164</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml4_vital_sign.xlsx
+++ b/mapping/mml4_vital_sign.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="269">
   <si>
     <r>
       <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/</t>
@@ -1405,44 +1405,6 @@
     <t>mmlVs:vsMemo</t>
   </si>
   <si>
-    <r>
-      <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at0011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]/map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pings/match</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>*値は"="で固定</t>
     <rPh sb="1" eb="2">
       <t>アタイ</t>
@@ -1453,78 +1415,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at0011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]/mappings/target/defining_code/terminology_id/value</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>#IMPLIED</t>
   </si>
   <si>
     <t>mmlVs:obsCodeId</t>
-  </si>
-  <si>
-    <r>
-      <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[at0003]/items[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at0011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/value</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Professional Identifier</t>
   </si>
   <si>
     <t>ユーザ指定</t>
@@ -1742,12 +1636,55 @@
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0006]/type</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[openEHR-EHR-CLUSTER.person_name.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[openEHR-EHR-CLUSTER.person_name.v1]/items[at0001]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.individual_professional.v1]/items[openEHR-EHR-CLUSTER.person_name.v1]/items[at0001]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pings/match</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1851,6 +1788,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1967,7 +1912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2117,6 +2062,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2422,8 +2370,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80:J81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2442,34 +2390,34 @@
     <row r="1" spans="1:12">
       <c r="A1" s="49"/>
       <c r="B1" s="48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G1" s="47"/>
       <c r="I1" s="46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K1" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" thickBot="1">
       <c r="A2" s="49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="47"/>
@@ -2486,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2504,7 +2452,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2521,10 +2469,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -2537,13 +2485,13 @@
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
       <c r="I5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>158</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -2551,25 +2499,25 @@
       <c r="A6" s="14"/>
       <c r="B6" s="9"/>
       <c r="C6" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
       <c r="I6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>158</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -2577,23 +2525,23 @@
       <c r="A7" s="14"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="44" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -2607,20 +2555,20 @@
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
       <c r="I8" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="44" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -2633,13 +2581,13 @@
       <c r="G9" s="11"/>
       <c r="H9" s="10"/>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>158</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L9" s="8"/>
     </row>
@@ -2647,27 +2595,27 @@
       <c r="A10" s="14"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
       <c r="I10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>158</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L10" s="8"/>
     </row>
@@ -2675,13 +2623,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2689,7 +2637,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L11" s="8"/>
     </row>
@@ -2703,20 +2651,20 @@
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
       <c r="I12" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
@@ -2729,13 +2677,13 @@
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
       <c r="I13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>158</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L13" s="8"/>
     </row>
@@ -2743,27 +2691,27 @@
       <c r="A14" s="14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>158</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -2771,13 +2719,13 @@
       <c r="A15" s="14"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -2785,7 +2733,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L15" s="8"/>
     </row>
@@ -2799,20 +2747,20 @@
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
       <c r="I16" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
@@ -2825,13 +2773,13 @@
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
       <c r="I17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>158</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L17" s="8"/>
     </row>
@@ -2839,27 +2787,22 @@
       <c r="A18" s="14"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
-      <c r="I18" t="s">
-        <v>216</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>215</v>
+      <c r="J18" s="11"/>
+      <c r="K18" s="44" t="s">
+        <v>266</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -2867,13 +2810,13 @@
       <c r="A19" s="14"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2881,7 +2824,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="L19" s="8"/>
     </row>
@@ -2895,11 +2838,11 @@
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
       <c r="I20" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="10" t="s">
-        <v>210</v>
+      <c r="K20" s="50" t="s">
+        <v>268</v>
       </c>
       <c r="L20" s="8"/>
     </row>
@@ -4154,7 +4097,7 @@
         <v>134</v>
       </c>
       <c r="K79" s="33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4170,7 +4113,7 @@
         <v>132</v>
       </c>
       <c r="K80" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="27">
@@ -4186,7 +4129,7 @@
         <v>130</v>
       </c>
       <c r="K81" s="33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:11">

--- a/mapping/mml4_vital_sign.xlsx
+++ b/mapping/mml4_vital_sign.xlsx
@@ -494,10 +494,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Overall interpretation2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.2]/units</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1677,6 +1673,10 @@
       </rPr>
       <t>pings/match</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.lab_result_annotation.v1]/items[at0002]/value</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2370,8 +2370,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K182" sqref="K182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2390,34 +2390,34 @@
     <row r="1" spans="1:12">
       <c r="A1" s="49"/>
       <c r="B1" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G1" s="47"/>
       <c r="I1" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K1" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" thickBot="1">
       <c r="A2" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="47"/>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2452,7 +2452,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -2485,13 +2485,13 @@
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -2499,25 +2499,25 @@
       <c r="A6" s="14"/>
       <c r="B6" s="9"/>
       <c r="C6" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
       <c r="I6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -2525,23 +2525,23 @@
       <c r="A7" s="14"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -2555,20 +2555,20 @@
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
       <c r="I8" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -2581,13 +2581,13 @@
       <c r="G9" s="11"/>
       <c r="H9" s="10"/>
       <c r="I9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="8"/>
     </row>
@@ -2595,27 +2595,27 @@
       <c r="A10" s="14"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L10" s="8"/>
     </row>
@@ -2623,13 +2623,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2637,7 +2637,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L11" s="8"/>
     </row>
@@ -2651,20 +2651,20 @@
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
       <c r="I12" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
@@ -2677,13 +2677,13 @@
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
       <c r="I13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L13" s="8"/>
     </row>
@@ -2691,27 +2691,27 @@
       <c r="A14" s="14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
       <c r="I14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -2719,13 +2719,13 @@
       <c r="A15" s="14"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -2733,7 +2733,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L15" s="8"/>
     </row>
@@ -2747,20 +2747,20 @@
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
       <c r="I16" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
@@ -2773,13 +2773,13 @@
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
       <c r="I17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L17" s="8"/>
     </row>
@@ -2787,22 +2787,22 @@
       <c r="A18" s="14"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
       <c r="J18" s="11"/>
       <c r="K18" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -2810,13 +2810,13 @@
       <c r="A19" s="14"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2824,7 +2824,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L19" s="8"/>
     </row>
@@ -2838,11 +2838,11 @@
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
       <c r="I20" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L20" s="8"/>
     </row>
@@ -2851,7 +2851,7 @@
         <v>1.5</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40" t="s">
@@ -2864,13 +2864,13 @@
       <c r="G21" s="39"/>
       <c r="H21" s="4"/>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="23" spans="1:12" ht="14.25" thickBot="1">
       <c r="A23" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2940,7 +2940,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -2986,13 +2986,13 @@
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L27" s="8"/>
     </row>
@@ -3018,7 +3018,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -3040,13 +3040,13 @@
       <c r="G29" s="11"/>
       <c r="H29" s="10"/>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L29" s="8"/>
     </row>
@@ -3069,7 +3069,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L30" s="8"/>
     </row>
@@ -3098,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
@@ -3111,13 +3111,13 @@
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
       <c r="I32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L32" s="8"/>
     </row>
@@ -3139,13 +3139,13 @@
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
       <c r="I33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L33" s="8"/>
     </row>
@@ -3178,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
@@ -3191,13 +3191,13 @@
       <c r="G35" s="11"/>
       <c r="H35" s="10"/>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -3206,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
@@ -3219,19 +3219,19 @@
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
       <c r="I36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L36" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" thickBot="1">
       <c r="A38" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3271,7 +3271,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="8"/>
@@ -3302,7 +3302,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
@@ -3315,13 +3315,13 @@
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3346,7 +3346,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3354,7 +3354,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
@@ -3367,13 +3367,13 @@
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
       <c r="I44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3395,7 +3395,7 @@
         <v>23</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3456,13 +3456,13 @@
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
       <c r="I48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3506,13 +3506,13 @@
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" thickBot="1">
@@ -3533,13 +3533,13 @@
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
       <c r="I51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3553,7 +3553,7 @@
     </row>
     <row r="54" spans="1:11" ht="14.25" thickBot="1">
       <c r="A54" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="35"/>
       <c r="C54" s="34"/>
@@ -3599,7 +3599,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="8"/>
@@ -3643,13 +3643,13 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
       <c r="I58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3674,7 +3674,7 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3695,13 +3695,13 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
       <c r="I60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3722,7 +3722,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="8"/>
@@ -3766,13 +3766,13 @@
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3797,7 +3797,7 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3818,13 +3818,13 @@
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3846,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3886,13 +3886,13 @@
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
       <c r="I68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J68" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3913,13 +3913,13 @@
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
       <c r="I69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3942,13 +3942,13 @@
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
       <c r="I70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J70" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3969,13 +3969,13 @@
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
       <c r="I71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J71" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.25" thickBot="1">
@@ -3996,18 +3996,18 @@
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
       <c r="I72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.25" thickBot="1">
       <c r="A75" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4047,7 +4047,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77" s="8"/>
@@ -4091,13 +4091,13 @@
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
       <c r="I79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J79" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K79" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4110,10 +4110,10 @@
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
       <c r="J80" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K80" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="27">
@@ -4126,10 +4126,10 @@
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
       <c r="J81" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K81" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4154,7 +4154,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4175,13 +4175,13 @@
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
       <c r="I83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4203,7 +4203,7 @@
         <v>23</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4243,13 +4243,13 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
       <c r="I86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4270,13 +4270,13 @@
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
       <c r="I87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4320,13 +4320,13 @@
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
       <c r="I89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="14.25" thickBot="1">
@@ -4347,18 +4347,18 @@
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
       <c r="I90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="14.25" thickBot="1">
       <c r="A92" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4398,7 +4398,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="8"/>
@@ -4442,13 +4442,13 @@
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
       <c r="I96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J96" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4471,10 +4471,10 @@
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
       <c r="J97" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="27">
@@ -4487,10 +4487,10 @@
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
       <c r="J98" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4511,13 +4511,13 @@
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
       <c r="I99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4539,7 +4539,7 @@
         <v>23</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4579,13 +4579,13 @@
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
       <c r="I102" t="s">
+        <v>115</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K102" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4606,13 +4606,13 @@
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
       <c r="I103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4635,13 +4635,13 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
       <c r="I104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4662,13 +4662,13 @@
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
       <c r="I105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="14.25" thickBot="1">
@@ -4689,18 +4689,18 @@
       <c r="G106" s="5"/>
       <c r="H106" s="4"/>
       <c r="I106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="14.25" thickBot="1">
       <c r="A108" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4740,7 +4740,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J110" s="10"/>
       <c r="K110" s="8"/>
@@ -4784,13 +4784,13 @@
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
       <c r="I112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4815,7 +4815,7 @@
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4836,13 +4836,13 @@
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
       <c r="I114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4864,7 +4864,7 @@
         <v>23</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4904,13 +4904,13 @@
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
       <c r="I117" t="s">
+        <v>115</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K117" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4931,13 +4931,13 @@
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4960,13 +4960,13 @@
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
       <c r="I119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4987,13 +4987,13 @@
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
       <c r="I120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" thickBot="1">
@@ -5014,18 +5014,18 @@
       <c r="G121" s="5"/>
       <c r="H121" s="4"/>
       <c r="I121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="14.25" thickBot="1">
       <c r="A123" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5065,7 +5065,7 @@
       <c r="G125" s="11"/>
       <c r="H125" s="10"/>
       <c r="I125" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J125" s="10"/>
       <c r="K125" s="8"/>
@@ -5109,13 +5109,13 @@
       <c r="G127" s="11"/>
       <c r="H127" s="10"/>
       <c r="I127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5140,7 +5140,7 @@
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5161,13 +5161,13 @@
       <c r="G129" s="11"/>
       <c r="H129" s="10"/>
       <c r="I129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5189,7 +5189,7 @@
         <v>23</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5229,13 +5229,13 @@
       <c r="G132" s="11"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K132" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5256,13 +5256,13 @@
       <c r="G133" s="11"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5285,13 +5285,13 @@
       <c r="G134" s="11"/>
       <c r="H134" s="10"/>
       <c r="I134" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5312,13 +5312,13 @@
       <c r="G135" s="11"/>
       <c r="H135" s="10"/>
       <c r="I135" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="14.25" thickBot="1">
@@ -5339,18 +5339,18 @@
       <c r="G136" s="5"/>
       <c r="H136" s="4"/>
       <c r="I136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="14.25" thickBot="1">
       <c r="A138" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5390,7 +5390,7 @@
       <c r="G140" s="11"/>
       <c r="H140" s="10"/>
       <c r="I140" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J140" s="10"/>
       <c r="K140" s="8"/>
@@ -5434,13 +5434,13 @@
       <c r="G142" s="11"/>
       <c r="H142" s="10"/>
       <c r="I142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5465,7 +5465,7 @@
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5486,13 +5486,13 @@
       <c r="G144" s="11"/>
       <c r="H144" s="10"/>
       <c r="I144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5514,7 +5514,7 @@
         <v>23</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5554,13 +5554,13 @@
       <c r="G147" s="11"/>
       <c r="H147" s="10"/>
       <c r="I147" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5581,13 +5581,13 @@
       <c r="G148" s="11"/>
       <c r="H148" s="10"/>
       <c r="I148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5610,13 +5610,13 @@
       <c r="G149" s="11"/>
       <c r="H149" s="10"/>
       <c r="I149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J149" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5658,18 +5658,18 @@
       <c r="G151" s="5"/>
       <c r="H151" s="4"/>
       <c r="I151" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="14.25" thickBot="1">
       <c r="A153" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5709,7 +5709,7 @@
       <c r="G155" s="11"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J155" s="10"/>
       <c r="K155" s="8"/>
@@ -5753,13 +5753,13 @@
       <c r="G157" s="11"/>
       <c r="H157" s="10"/>
       <c r="I157" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5784,7 +5784,7 @@
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5805,13 +5805,13 @@
       <c r="G159" s="11"/>
       <c r="H159" s="10"/>
       <c r="I159" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5833,7 +5833,7 @@
         <v>23</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5873,13 +5873,13 @@
       <c r="G162" s="11"/>
       <c r="H162" s="10"/>
       <c r="I162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -5900,13 +5900,13 @@
       <c r="G163" s="11"/>
       <c r="H163" s="10"/>
       <c r="I163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -5971,7 +5971,7 @@
       <c r="G166" s="5"/>
       <c r="H166" s="4"/>
       <c r="I166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>65</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="168" spans="1:11" ht="14.25" thickBot="1">
       <c r="A168" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6022,7 +6022,7 @@
       <c r="G170" s="11"/>
       <c r="H170" s="10"/>
       <c r="I170" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J170" s="10"/>
       <c r="K170" s="8"/>
@@ -6066,13 +6066,13 @@
       <c r="G172" s="11"/>
       <c r="H172" s="10"/>
       <c r="I172" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6097,7 +6097,7 @@
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
       <c r="K173" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6118,7 +6118,7 @@
       <c r="G174" s="11"/>
       <c r="H174" s="10"/>
       <c r="I174" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="J174" s="11" t="s">
         <v>65</v>
@@ -6296,7 +6296,7 @@
         <v>65</v>
       </c>
       <c r="K181" s="22" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="14.25" thickBot="1">
